--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H2">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>3.632737328716321</v>
+        <v>4.115250367796889</v>
       </c>
       <c r="R2">
-        <v>3.632737328716321</v>
+        <v>37.03725331017201</v>
       </c>
       <c r="S2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="T2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H3">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>33.61239787548223</v>
+        <v>34.12006444559356</v>
       </c>
       <c r="R3">
-        <v>33.61239787548223</v>
+        <v>307.080580010342</v>
       </c>
       <c r="S3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="T3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H4">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>52.74476430040103</v>
+        <v>53.74770432259444</v>
       </c>
       <c r="R4">
-        <v>52.74476430040103</v>
+        <v>483.72933890335</v>
       </c>
       <c r="S4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="T4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
     </row>
   </sheetData>
